--- a/BloodstreamAPI/testData/Drop3defects.xlsx
+++ b/BloodstreamAPI/testData/Drop3defects.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E644940A-5B8A-41FF-9A37-8DA9ED254EB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD3FA09-3C18-4547-8243-FBE2FE1BECDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchFilter_GroupStatusCount" sheetId="17" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="WorklistConc" sheetId="37" r:id="rId7"/>
     <sheet name="DeleteKeys" sheetId="38" r:id="rId8"/>
     <sheet name="CustomFilterAction" sheetId="24" r:id="rId9"/>
+    <sheet name="SpecialChar" sheetId="39" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="30">
   <si>
     <t>EndPoint</t>
   </si>
@@ -106,6 +107,18 @@
   </si>
   <si>
     <t>YTEyMw==</t>
+  </si>
+  <si>
+    <t>TestInformation</t>
+  </si>
+  <si>
+    <t>/configuration/system/layout</t>
+  </si>
+  <si>
+    <t>TestInfoFilterAssert200</t>
+  </si>
+  <si>
+    <t>LayoutConfigTabAssert200</t>
   </si>
 </sst>
 </file>
@@ -168,7 +181,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -207,6 +220,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -511,10 +528,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -541,10 +558,10 @@
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="15"/>
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -564,10 +581,10 @@
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:2" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="15"/>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -590,6 +607,68 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2880BF17-CE9A-4CB1-9D04-B9DA0F99E1AD}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -611,11 +690,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -650,11 +729,11 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -682,11 +761,11 @@
       <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -818,11 +897,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -861,11 +940,11 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -893,11 +972,11 @@
       <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -949,11 +1028,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -990,11 +1069,11 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1022,11 +1101,11 @@
       <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1149,13 +1228,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1202,13 +1281,13 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1248,13 +1327,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1297,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83670B24-A9D6-4C32-87AD-155C6ADAD9B8}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,11 +1403,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
